--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0b0b0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -147,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +187,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="A1:C37"/>
@@ -555,6 +566,11 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -564,6 +580,11 @@
           <t>MAT13</t>
         </is>
       </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>PPL3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -575,6 +596,7 @@
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr"/>
+      <c r="D3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -586,6 +608,7 @@
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -597,6 +620,11 @@
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -608,6 +636,7 @@
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr"/>
+      <c r="D6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -619,6 +648,7 @@
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr"/>
+      <c r="D7" s="14" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -630,6 +660,7 @@
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr"/>
+      <c r="D8" s="14" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -641,6 +672,7 @@
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr"/>
+      <c r="D9" s="14" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -652,6 +684,7 @@
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
+      <c r="D10" s="14" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -662,7 +695,12 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr"/>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -674,6 +712,7 @@
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="14" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -685,6 +724,7 @@
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="14" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -696,6 +736,7 @@
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="14" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -707,6 +748,7 @@
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="14" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -718,6 +760,7 @@
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -729,6 +772,7 @@
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -740,6 +784,7 @@
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -751,6 +796,7 @@
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -762,6 +808,7 @@
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -773,6 +820,7 @@
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr"/>
+      <c r="D21" s="14" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -784,6 +832,7 @@
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="14" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -795,6 +844,7 @@
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr"/>
+      <c r="D23" s="14" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -806,6 +856,7 @@
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="14" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -817,6 +868,7 @@
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr"/>
+      <c r="D25" s="14" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -828,6 +880,7 @@
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="14" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -838,7 +891,12 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr"/>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -850,6 +908,7 @@
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr"/>
+      <c r="D28" s="14" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -861,6 +920,7 @@
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr"/>
+      <c r="D29" s="14" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -872,6 +932,7 @@
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="14" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -883,6 +944,7 @@
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr"/>
+      <c r="D31" s="14" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -894,6 +956,7 @@
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="14" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -905,6 +968,7 @@
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="14" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -916,6 +980,7 @@
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="14" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -931,6 +996,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D35" s="14" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -942,6 +1008,7 @@
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr"/>
+      <c r="D36" s="14" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -953,6 +1020,7 @@
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -38,10 +42,6 @@
       <sz val="14"/>
     </font>
     <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,24 +157,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -186,13 +197,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +552,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C37"/>
+      <selection activeCell="C4" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -551,75 +562,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>MAT13</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>PPL3</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="14" t="inlineStr"/>
+      <c r="C3" s="11" t="inlineStr"/>
+      <c r="D3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="14" t="inlineStr"/>
+      <c r="C4" s="11" t="inlineStr"/>
+      <c r="D4" s="16" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr"/>
+      <c r="C5" s="11" t="inlineStr"/>
       <c r="D5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -627,400 +642,412 @@
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="14" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="16" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr"/>
-      <c r="D7" s="14" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="16" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr"/>
-      <c r="D8" s="14" t="inlineStr"/>
+      <c r="C8" s="11" t="inlineStr"/>
+      <c r="D8" s="16" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr"/>
-      <c r="D9" s="14" t="inlineStr"/>
+      <c r="C9" s="11" t="inlineStr"/>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr"/>
-      <c r="D10" s="14" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="16" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr"/>
+      <c r="D11" s="16" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="14" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr"/>
+      <c r="D12" s="16" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr"/>
-      <c r="D13" s="14" t="inlineStr"/>
+      <c r="C13" s="11" t="inlineStr"/>
+      <c r="D13" s="16" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr"/>
-      <c r="D14" s="14" t="inlineStr"/>
+      <c r="C14" s="11" t="inlineStr"/>
+      <c r="D14" s="16" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr"/>
-      <c r="D15" s="14" t="inlineStr"/>
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="16" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr"/>
-      <c r="D16" s="14" t="inlineStr"/>
+      <c r="C16" s="11" t="inlineStr"/>
+      <c r="D16" s="16" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr"/>
-      <c r="D17" s="14" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr"/>
+      <c r="D17" s="16" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr"/>
-      <c r="D18" s="14" t="inlineStr"/>
+      <c r="C18" s="11" t="inlineStr"/>
+      <c r="D18" s="16" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr"/>
-      <c r="D19" s="14" t="inlineStr"/>
+      <c r="C19" s="11" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr"/>
-      <c r="D20" s="14" t="inlineStr"/>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="16" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr"/>
-      <c r="D21" s="14" t="inlineStr"/>
+      <c r="C21" s="11" t="inlineStr"/>
+      <c r="D21" s="16" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr"/>
-      <c r="D22" s="14" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="16" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="9" t="inlineStr"/>
-      <c r="D23" s="14" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="16" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr"/>
-      <c r="D24" s="14" t="inlineStr"/>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="16" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr"/>
-      <c r="D25" s="14" t="inlineStr"/>
+      <c r="C25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr"/>
-      <c r="D26" s="14" t="inlineStr"/>
+      <c r="C26" s="11" t="inlineStr"/>
+      <c r="D26" s="16" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="13" t="inlineStr">
+      <c r="C27" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="14" t="inlineStr"/>
+      <c r="D27" s="16" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="9" t="inlineStr"/>
-      <c r="D28" s="14" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr"/>
+      <c r="D28" s="16" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr"/>
-      <c r="D29" s="14" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="16" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr"/>
-      <c r="D30" s="14" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="16" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr"/>
-      <c r="D31" s="14" t="inlineStr"/>
+      <c r="C31" s="11" t="inlineStr"/>
+      <c r="D31" s="16" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr"/>
-      <c r="D32" s="14" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="16" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr"/>
-      <c r="D33" s="14" t="inlineStr"/>
+      <c r="C33" s="11" t="inlineStr"/>
+      <c r="D33" s="16" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr"/>
-      <c r="D34" s="14" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="16" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="13" t="inlineStr">
+      <c r="C35" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D35" s="14" t="inlineStr"/>
+      <c r="D35" s="16" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr"/>
-      <c r="D36" s="14" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr"/>
+      <c r="D36" s="16" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr"/>
-      <c r="D37" s="14" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr"/>
+      <c r="D37" s="16" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -719,7 +719,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr"/>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -742,8 +746,16 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr"/>
-      <c r="D13" s="16" t="inlineStr"/>
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -970,8 +982,16 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr"/>
-      <c r="D31" s="16" t="inlineStr"/>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -994,8 +1014,16 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr"/>
-      <c r="D33" s="16" t="inlineStr"/>
+      <c r="C33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A1:D37"/>
@@ -582,6 +582,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="13" t="n"/>
@@ -596,6 +601,11 @@
           <t>PPL3</t>
         </is>
       </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>BING8</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="11" t="n">
@@ -612,6 +622,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E3" s="11" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -624,6 +635,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr"/>
       <c r="D4" s="16" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -640,6 +652,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E5" s="11" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -652,6 +665,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="16" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -664,6 +678,7 @@
       </c>
       <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="16" t="inlineStr"/>
+      <c r="E7" s="11" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -676,6 +691,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="16" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -692,6 +708,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E9" s="11" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -704,6 +721,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="16" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -724,6 +742,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E11" s="11" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -736,6 +755,7 @@
       </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="16" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -756,6 +776,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E13" s="11" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -767,7 +788,12 @@
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr"/>
-      <c r="D14" s="16" t="inlineStr"/>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -780,6 +806,7 @@
       </c>
       <c r="C15" s="11" t="inlineStr"/>
       <c r="D15" s="16" t="inlineStr"/>
+      <c r="E15" s="11" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -792,6 +819,7 @@
       </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="16" t="inlineStr"/>
+      <c r="E16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -804,6 +832,7 @@
       </c>
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="16" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -816,6 +845,7 @@
       </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="16" t="inlineStr"/>
+      <c r="E18" s="11" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -828,6 +858,7 @@
       </c>
       <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="16" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -840,6 +871,7 @@
       </c>
       <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="16" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -852,6 +884,7 @@
       </c>
       <c r="C21" s="11" t="inlineStr"/>
       <c r="D21" s="16" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -864,6 +897,7 @@
       </c>
       <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="16" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -876,6 +910,7 @@
       </c>
       <c r="C23" s="11" t="inlineStr"/>
       <c r="D23" s="16" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -888,6 +923,7 @@
       </c>
       <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="16" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -908,6 +944,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E25" s="11" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -920,6 +957,7 @@
       </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="16" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -936,6 +974,7 @@
         </is>
       </c>
       <c r="D27" s="16" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -948,6 +987,7 @@
       </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="16" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -960,6 +1000,7 @@
       </c>
       <c r="C29" s="11" t="inlineStr"/>
       <c r="D29" s="16" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -972,6 +1013,7 @@
       </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="16" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -992,6 +1034,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E31" s="11" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -1004,6 +1047,7 @@
       </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="16" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1024,6 +1068,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E33" s="11" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1036,6 +1081,7 @@
       </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="16" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1052,6 +1098,7 @@
         </is>
       </c>
       <c r="D35" s="16" t="inlineStr"/>
+      <c r="E35" s="11" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -1064,6 +1111,7 @@
       </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="16" t="inlineStr"/>
+      <c r="E36" s="11" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1076,6 +1124,7 @@
       </c>
       <c r="C37" s="11" t="inlineStr"/>
       <c r="D37" s="16" t="inlineStr"/>
+      <c r="E37" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -616,13 +616,21 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr"/>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr"/>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -805,7 +813,11 @@
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr"/>
-      <c r="D15" s="16" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="11" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
@@ -843,7 +855,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr"/>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D18" s="16" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
     </row>
@@ -884,7 +900,11 @@
       </c>
       <c r="C21" s="11" t="inlineStr"/>
       <c r="D21" s="16" t="inlineStr"/>
-      <c r="E21" s="11" t="inlineStr"/>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -986,7 +1006,11 @@
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
-      <c r="D28" s="16" t="inlineStr"/>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E28" s="11" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -898,7 +898,11 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr"/>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="16" t="inlineStr"/>
       <c r="E21" s="17" t="inlineStr">
         <is>
@@ -941,7 +945,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="16" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -641,7 +641,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="16" t="inlineStr"/>
       <c r="E4" s="11" t="inlineStr"/>
     </row>
@@ -654,7 +658,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr"/>
+      <c r="C5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -684,7 +692,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="16" t="inlineStr"/>
       <c r="E7" s="11" t="inlineStr"/>
     </row>
@@ -710,13 +722,21 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr"/>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr"/>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -750,7 +770,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr"/>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -784,7 +808,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr"/>
+      <c r="E13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -795,7 +823,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr"/>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -872,7 +904,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="16" t="inlineStr"/>
       <c r="E19" s="11" t="inlineStr"/>
     </row>
@@ -887,7 +923,11 @@
       </c>
       <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="16" t="inlineStr"/>
-      <c r="E20" s="11" t="inlineStr"/>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -950,7 +990,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="16" t="inlineStr"/>
+      <c r="D24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
@@ -983,7 +1027,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="16" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
     </row>
@@ -1013,13 +1061,21 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D28" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr"/>
+      <c r="E28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -1111,8 +1167,16 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="16" t="inlineStr"/>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E34" s="11" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
@@ -1129,8 +1193,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D35" s="16" t="inlineStr"/>
-      <c r="E35" s="11" t="inlineStr"/>
+      <c r="D35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -697,7 +697,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr"/>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="11" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
@@ -892,8 +896,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr"/>
-      <c r="E18" s="11" t="inlineStr"/>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -1032,7 +1044,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="16" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E26" s="11" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
@@ -1049,7 +1065,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="16" t="inlineStr"/>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E27" s="11" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
@@ -1100,7 +1120,11 @@
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
-      <c r="D30" s="16" t="inlineStr"/>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E30" s="11" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
@@ -1122,7 +1146,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="11" t="inlineStr"/>
+      <c r="E31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -1228,7 +1256,11 @@
       </c>
       <c r="C37" s="11" t="inlineStr"/>
       <c r="D37" s="16" t="inlineStr"/>
-      <c r="E37" s="11" t="inlineStr"/>
+      <c r="E37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -702,7 +702,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="E7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -837,7 +841,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr"/>
+      <c r="E14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -921,7 +929,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
@@ -1007,7 +1019,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr"/>
+      <c r="E24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -1028,7 +1044,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="11" t="inlineStr"/>
+      <c r="E25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -668,7 +668,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr"/>
+      <c r="E5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -795,7 +799,11 @@
       </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="16" t="inlineStr"/>
-      <c r="E12" s="11" t="inlineStr"/>
+      <c r="E12" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -862,7 +870,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E15" s="11" t="inlineStr"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -875,7 +887,11 @@
       </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="16" t="inlineStr"/>
-      <c r="E16" s="11" t="inlineStr"/>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -887,7 +903,11 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="16" t="inlineStr"/>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
@@ -1069,7 +1089,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -1183,7 +1207,11 @@
       </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="16" t="inlineStr"/>
-      <c r="E32" s="11" t="inlineStr"/>
+      <c r="E32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1225,7 +1253,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E34" s="11" t="inlineStr"/>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1263,7 +1295,11 @@
       </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="16" t="inlineStr"/>
-      <c r="E36" s="11" t="inlineStr"/>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -647,7 +647,11 @@
         </is>
       </c>
       <c r="D4" s="16" t="inlineStr"/>
-      <c r="E4" s="11" t="inlineStr"/>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -761,7 +765,11 @@
       </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="16" t="inlineStr"/>
-      <c r="E10" s="11" t="inlineStr"/>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -954,7 +962,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr"/>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -987,7 +999,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E21" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1232,7 +1248,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E33" s="11" t="inlineStr"/>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -171,13 +171,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -197,13 +197,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:D37"/>
+      <selection activeCell="D5" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -616,17 +616,17 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -641,13 +641,17 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="16" t="inlineStr"/>
-      <c r="E4" s="17" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -662,17 +666,17 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="17" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -688,7 +692,7 @@
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="16" t="inlineStr"/>
+      <c r="D6" s="17" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
@@ -700,17 +704,17 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E7" s="17" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -726,7 +730,7 @@
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="16" t="inlineStr"/>
+      <c r="D8" s="17" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
@@ -738,17 +742,17 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -764,8 +768,8 @@
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="16" t="inlineStr"/>
-      <c r="E10" s="17" t="inlineStr">
+      <c r="D10" s="17" t="inlineStr"/>
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -780,17 +784,17 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -806,8 +810,8 @@
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="16" t="inlineStr"/>
-      <c r="E12" s="17" t="inlineStr">
+      <c r="D12" s="17" t="inlineStr"/>
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -822,17 +826,17 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D13" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E13" s="17" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -847,17 +851,17 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="17" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -873,12 +877,12 @@
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr"/>
-      <c r="D15" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="17" t="inlineStr">
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -894,8 +898,8 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="16" t="inlineStr"/>
-      <c r="E16" s="17" t="inlineStr">
+      <c r="D16" s="17" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -911,7 +915,7 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="15" t="inlineStr">
+      <c r="D17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -927,17 +931,17 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E18" s="17" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -952,17 +956,17 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -978,8 +982,8 @@
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="16" t="inlineStr"/>
-      <c r="E20" s="17" t="inlineStr">
+      <c r="D20" s="17" t="inlineStr"/>
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -994,17 +998,17 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E21" s="17" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1020,7 +1024,7 @@
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="16" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
@@ -1033,7 +1037,7 @@
         </is>
       </c>
       <c r="C23" s="11" t="inlineStr"/>
-      <c r="D23" s="16" t="inlineStr"/>
+      <c r="D23" s="17" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
@@ -1045,17 +1049,17 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E24" s="17" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1070,17 +1074,17 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="17" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1095,17 +1099,17 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1120,12 +1124,12 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="inlineStr">
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1141,17 +1145,17 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E28" s="17" t="inlineStr">
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1167,7 +1171,7 @@
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr"/>
-      <c r="D29" s="16" t="inlineStr"/>
+      <c r="D29" s="17" t="inlineStr"/>
       <c r="E29" s="11" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
@@ -1180,7 +1184,7 @@
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
-      <c r="D30" s="15" t="inlineStr">
+      <c r="D30" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1196,17 +1200,17 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E31" s="17" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1222,8 +1226,8 @@
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
-      <c r="D32" s="16" t="inlineStr"/>
-      <c r="E32" s="17" t="inlineStr">
+      <c r="D32" s="17" t="inlineStr"/>
+      <c r="E32" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1238,17 +1242,17 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E33" s="17" t="inlineStr">
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1263,17 +1267,17 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D34" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="17" t="inlineStr">
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1288,17 +1292,17 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="17" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1314,8 +1318,12 @@
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="16" t="inlineStr"/>
-      <c r="E36" s="17" t="inlineStr">
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1331,8 +1339,8 @@
         </is>
       </c>
       <c r="C37" s="11" t="inlineStr"/>
-      <c r="D37" s="16" t="inlineStr"/>
-      <c r="E37" s="17" t="inlineStr">
+      <c r="D37" s="17" t="inlineStr"/>
+      <c r="E37" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -920,7 +920,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E17" s="11" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-13 (18 Oktober 2021 - 24 Oktober 2021).xlsx
@@ -914,7 +914,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
